--- a/HarryPotter/HarryPotter1ScreenPlay.xlsx
+++ b/HarryPotter/HarryPotter1ScreenPlay.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roryn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roryn\OneDrive\Documents\GitHub\Games\HarryPotter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AFB074E-9451-4ABF-BB76-5C6A26E87DDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9D620A-5138-4E9B-8AD1-74549BCDC47A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B1494DA-0F83-4B47-A68B-7BFAE4B74CDC}"/>
   </bookViews>
@@ -9882,8 +9882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE22A93-B554-4FEA-A4D6-0544835F4A49}">
   <dimension ref="A1:F1588"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="C447" sqref="C447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17128,7 +17128,7 @@
         <v>735</v>
       </c>
       <c r="E362">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>9</v>
@@ -17148,7 +17148,7 @@
         <v>737</v>
       </c>
       <c r="E363">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>9</v>
@@ -17168,7 +17168,7 @@
         <v>740</v>
       </c>
       <c r="E364">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>9</v>
@@ -17188,7 +17188,7 @@
         <v>742</v>
       </c>
       <c r="E365">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>9</v>
@@ -17208,7 +17208,7 @@
         <v>744</v>
       </c>
       <c r="E366">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>9</v>
@@ -17228,7 +17228,7 @@
         <v>747</v>
       </c>
       <c r="E367">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>9</v>
@@ -17248,7 +17248,7 @@
         <v>749</v>
       </c>
       <c r="E368">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F368" s="2" t="s">
         <v>9</v>
@@ -17268,7 +17268,7 @@
         <v>750</v>
       </c>
       <c r="E369">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>9</v>
@@ -17288,7 +17288,7 @@
         <v>752</v>
       </c>
       <c r="E370">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>9</v>
@@ -17308,7 +17308,7 @@
         <v>754</v>
       </c>
       <c r="E371">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F371" s="2" t="s">
         <v>9</v>
@@ -17328,7 +17328,7 @@
         <v>756</v>
       </c>
       <c r="E372">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F372" s="2" t="s">
         <v>9</v>
@@ -17348,7 +17348,7 @@
         <v>759</v>
       </c>
       <c r="E373">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>9</v>
@@ -17368,7 +17368,7 @@
         <v>762</v>
       </c>
       <c r="E374">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F374" s="2" t="s">
         <v>9</v>
@@ -17388,7 +17388,7 @@
         <v>764</v>
       </c>
       <c r="E375">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>9</v>
@@ -17408,7 +17408,7 @@
         <v>766</v>
       </c>
       <c r="E376">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>9</v>
@@ -17428,7 +17428,7 @@
         <v>768</v>
       </c>
       <c r="E377">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>9</v>
@@ -17448,7 +17448,7 @@
         <v>770</v>
       </c>
       <c r="E378">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F378" s="2" t="s">
         <v>9</v>
@@ -17468,7 +17468,7 @@
         <v>772</v>
       </c>
       <c r="E379">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>9</v>
@@ -17488,7 +17488,7 @@
         <v>774</v>
       </c>
       <c r="E380">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F380" s="2" t="s">
         <v>9</v>
@@ -17508,7 +17508,7 @@
         <v>776</v>
       </c>
       <c r="E381">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>9</v>
@@ -17528,7 +17528,7 @@
         <v>778</v>
       </c>
       <c r="E382">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>9</v>
@@ -17548,7 +17548,7 @@
         <v>780</v>
       </c>
       <c r="E383">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>9</v>
@@ -17568,7 +17568,7 @@
         <v>783</v>
       </c>
       <c r="E384">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>9</v>
@@ -17588,7 +17588,7 @@
         <v>786</v>
       </c>
       <c r="E385">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>9</v>
@@ -17608,7 +17608,7 @@
         <v>788</v>
       </c>
       <c r="E386">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>9</v>
@@ -17628,7 +17628,7 @@
         <v>790</v>
       </c>
       <c r="E387">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>9</v>
@@ -17648,7 +17648,7 @@
         <v>792</v>
       </c>
       <c r="E388">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F388" s="2" t="s">
         <v>9</v>
@@ -17668,7 +17668,7 @@
         <v>793</v>
       </c>
       <c r="E389">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>9</v>
@@ -17688,7 +17688,7 @@
         <v>795</v>
       </c>
       <c r="E390">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>9</v>
@@ -17708,7 +17708,7 @@
         <v>797</v>
       </c>
       <c r="E391">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>9</v>
@@ -17728,7 +17728,7 @@
         <v>799</v>
       </c>
       <c r="E392">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>9</v>
@@ -17748,7 +17748,7 @@
         <v>801</v>
       </c>
       <c r="E393">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>9</v>
@@ -17768,7 +17768,7 @@
         <v>803</v>
       </c>
       <c r="E394">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>9</v>
@@ -17788,7 +17788,7 @@
         <v>805</v>
       </c>
       <c r="E395">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>9</v>
@@ -17808,7 +17808,7 @@
         <v>808</v>
       </c>
       <c r="E396">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>9</v>
@@ -17828,7 +17828,7 @@
         <v>810</v>
       </c>
       <c r="E397">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F397" s="2" t="s">
         <v>9</v>
@@ -17848,7 +17848,7 @@
         <v>812</v>
       </c>
       <c r="E398">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>9</v>
@@ -17868,7 +17868,7 @@
         <v>814</v>
       </c>
       <c r="E399">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>9</v>
@@ -17888,7 +17888,7 @@
         <v>816</v>
       </c>
       <c r="E400">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>9</v>
@@ -17908,7 +17908,7 @@
         <v>818</v>
       </c>
       <c r="E401">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>9</v>
@@ -17928,7 +17928,7 @@
         <v>820</v>
       </c>
       <c r="E402">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>9</v>
@@ -17948,7 +17948,7 @@
         <v>822</v>
       </c>
       <c r="E403">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>9</v>
@@ -17968,7 +17968,7 @@
         <v>824</v>
       </c>
       <c r="E404">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>9</v>
@@ -17988,7 +17988,7 @@
         <v>826</v>
       </c>
       <c r="E405">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>9</v>
@@ -18008,7 +18008,7 @@
         <v>828</v>
       </c>
       <c r="E406">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>9</v>
@@ -18028,7 +18028,7 @@
         <v>830</v>
       </c>
       <c r="E407">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>9</v>
@@ -18048,7 +18048,7 @@
         <v>832</v>
       </c>
       <c r="E408">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>9</v>
@@ -18068,7 +18068,7 @@
         <v>834</v>
       </c>
       <c r="E409">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>9</v>
@@ -18088,7 +18088,7 @@
         <v>836</v>
       </c>
       <c r="E410">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>9</v>
@@ -18108,7 +18108,7 @@
         <v>838</v>
       </c>
       <c r="E411">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>9</v>
@@ -18128,7 +18128,7 @@
         <v>840</v>
       </c>
       <c r="E412">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>9</v>
@@ -18148,7 +18148,7 @@
         <v>842</v>
       </c>
       <c r="E413">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>9</v>
@@ -18168,7 +18168,7 @@
         <v>844</v>
       </c>
       <c r="E414">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>9</v>
@@ -18188,7 +18188,7 @@
         <v>846</v>
       </c>
       <c r="E415">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>9</v>
@@ -18208,7 +18208,7 @@
         <v>848</v>
       </c>
       <c r="E416">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>9</v>
@@ -18228,7 +18228,7 @@
         <v>850</v>
       </c>
       <c r="E417">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>9</v>
@@ -18248,7 +18248,7 @@
         <v>852</v>
       </c>
       <c r="E418">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>9</v>
@@ -18268,7 +18268,7 @@
         <v>854</v>
       </c>
       <c r="E419">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>9</v>
@@ -18288,7 +18288,7 @@
         <v>856</v>
       </c>
       <c r="E420">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>9</v>
@@ -18308,7 +18308,7 @@
         <v>859</v>
       </c>
       <c r="E421">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>9</v>
@@ -18328,7 +18328,7 @@
         <v>861</v>
       </c>
       <c r="E422">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>9</v>
@@ -18348,7 +18348,7 @@
         <v>863</v>
       </c>
       <c r="E423">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>9</v>
@@ -18368,7 +18368,7 @@
         <v>865</v>
       </c>
       <c r="E424">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>9</v>
@@ -18388,7 +18388,7 @@
         <v>867</v>
       </c>
       <c r="E425">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>9</v>
@@ -18408,7 +18408,7 @@
         <v>869</v>
       </c>
       <c r="E426">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F426" s="2" t="s">
         <v>9</v>
@@ -18428,7 +18428,7 @@
         <v>871</v>
       </c>
       <c r="E427">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>9</v>
@@ -18448,7 +18448,7 @@
         <v>873</v>
       </c>
       <c r="E428">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>9</v>
@@ -18468,7 +18468,7 @@
         <v>875</v>
       </c>
       <c r="E429">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>9</v>
@@ -18488,7 +18488,7 @@
         <v>877</v>
       </c>
       <c r="E430">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>9</v>
@@ -18508,7 +18508,7 @@
         <v>879</v>
       </c>
       <c r="E431">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>9</v>
@@ -18528,7 +18528,7 @@
         <v>881</v>
       </c>
       <c r="E432">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>9</v>
@@ -18548,7 +18548,7 @@
         <v>883</v>
       </c>
       <c r="E433">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>9</v>
@@ -18568,7 +18568,7 @@
         <v>885</v>
       </c>
       <c r="E434">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>9</v>
@@ -18588,7 +18588,7 @@
         <v>887</v>
       </c>
       <c r="E435">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>9</v>
@@ -18608,7 +18608,7 @@
         <v>889</v>
       </c>
       <c r="E436">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>9</v>
@@ -18628,7 +18628,7 @@
         <v>891</v>
       </c>
       <c r="E437">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>9</v>
@@ -18648,7 +18648,7 @@
         <v>893</v>
       </c>
       <c r="E438">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>9</v>
@@ -18668,7 +18668,7 @@
         <v>895</v>
       </c>
       <c r="E439">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F439" s="2" t="s">
         <v>9</v>
@@ -18688,7 +18688,7 @@
         <v>897</v>
       </c>
       <c r="E440">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F440" s="2" t="s">
         <v>9</v>
@@ -18708,7 +18708,7 @@
         <v>899</v>
       </c>
       <c r="E441">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>9</v>
@@ -18728,7 +18728,7 @@
         <v>901</v>
       </c>
       <c r="E442">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>9</v>
@@ -18748,7 +18748,7 @@
         <v>903</v>
       </c>
       <c r="E443">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>9</v>
@@ -18768,7 +18768,7 @@
         <v>905</v>
       </c>
       <c r="E444">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F444" s="2" t="s">
         <v>9</v>
@@ -18788,7 +18788,7 @@
         <v>907</v>
       </c>
       <c r="E445">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F445" s="2" t="s">
         <v>9</v>
@@ -18808,7 +18808,7 @@
         <v>909</v>
       </c>
       <c r="E446">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>9</v>
@@ -18828,7 +18828,7 @@
         <v>911</v>
       </c>
       <c r="E447">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F447" s="2" t="s">
         <v>9</v>
@@ -18848,7 +18848,7 @@
         <v>913</v>
       </c>
       <c r="E448">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F448" s="2" t="s">
         <v>9</v>
@@ -18868,7 +18868,7 @@
         <v>915</v>
       </c>
       <c r="E449">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>9</v>
@@ -18888,7 +18888,7 @@
         <v>917</v>
       </c>
       <c r="E450">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F450" s="2" t="s">
         <v>9</v>
@@ -18908,7 +18908,7 @@
         <v>919</v>
       </c>
       <c r="E451">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F451" s="2" t="s">
         <v>9</v>
@@ -18928,7 +18928,7 @@
         <v>921</v>
       </c>
       <c r="E452">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>9</v>
@@ -18948,7 +18948,7 @@
         <v>923</v>
       </c>
       <c r="E453">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>9</v>
@@ -18968,7 +18968,7 @@
         <v>925</v>
       </c>
       <c r="E454">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>9</v>
@@ -18988,7 +18988,7 @@
         <v>927</v>
       </c>
       <c r="E455">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F455" s="2" t="s">
         <v>9</v>
@@ -19008,7 +19008,7 @@
         <v>929</v>
       </c>
       <c r="E456">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F456" s="2" t="s">
         <v>9</v>
@@ -19028,7 +19028,7 @@
         <v>931</v>
       </c>
       <c r="E457">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F457" s="2" t="s">
         <v>9</v>
@@ -19048,7 +19048,7 @@
         <v>933</v>
       </c>
       <c r="E458">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>9</v>
@@ -19068,7 +19068,7 @@
         <v>935</v>
       </c>
       <c r="E459">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F459" s="2" t="s">
         <v>9</v>
@@ -19088,7 +19088,7 @@
         <v>937</v>
       </c>
       <c r="E460">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F460" s="2" t="s">
         <v>9</v>
@@ -19108,7 +19108,7 @@
         <v>940</v>
       </c>
       <c r="E461">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F461" s="2" t="s">
         <v>9</v>
@@ -19128,7 +19128,7 @@
         <v>942</v>
       </c>
       <c r="E462">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F462" s="2" t="s">
         <v>9</v>
@@ -19148,7 +19148,7 @@
         <v>945</v>
       </c>
       <c r="E463">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F463" s="2" t="s">
         <v>9</v>
@@ -19168,7 +19168,7 @@
         <v>947</v>
       </c>
       <c r="E464">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F464" s="2" t="s">
         <v>9</v>
@@ -19188,7 +19188,7 @@
         <v>949</v>
       </c>
       <c r="E465">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F465" s="2" t="s">
         <v>9</v>
@@ -19208,7 +19208,7 @@
         <v>951</v>
       </c>
       <c r="E466">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F466" s="2" t="s">
         <v>9</v>
@@ -19228,7 +19228,7 @@
         <v>953</v>
       </c>
       <c r="E467">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F467" s="2" t="s">
         <v>9</v>
@@ -19248,7 +19248,7 @@
         <v>954</v>
       </c>
       <c r="E468">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F468" s="2" t="s">
         <v>9</v>
@@ -19268,7 +19268,7 @@
         <v>956</v>
       </c>
       <c r="E469">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F469" s="2" t="s">
         <v>9</v>
@@ -19288,7 +19288,7 @@
         <v>958</v>
       </c>
       <c r="E470">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F470" s="2" t="s">
         <v>9</v>
@@ -19308,7 +19308,7 @@
         <v>960</v>
       </c>
       <c r="E471">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F471" s="2" t="s">
         <v>9</v>
@@ -19328,7 +19328,7 @@
         <v>962</v>
       </c>
       <c r="E472">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F472" s="2" t="s">
         <v>9</v>
@@ -19348,7 +19348,7 @@
         <v>964</v>
       </c>
       <c r="E473">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F473" s="2" t="s">
         <v>9</v>
@@ -19368,7 +19368,7 @@
         <v>966</v>
       </c>
       <c r="E474">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F474" s="2" t="s">
         <v>9</v>
@@ -19388,7 +19388,7 @@
         <v>968</v>
       </c>
       <c r="E475">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F475" s="2" t="s">
         <v>9</v>
@@ -19408,7 +19408,7 @@
         <v>970</v>
       </c>
       <c r="E476">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F476" s="2" t="s">
         <v>9</v>
@@ -19428,7 +19428,7 @@
         <v>972</v>
       </c>
       <c r="E477">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F477" s="2" t="s">
         <v>9</v>
@@ -19448,7 +19448,7 @@
         <v>974</v>
       </c>
       <c r="E478">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F478" s="2" t="s">
         <v>9</v>
@@ -19468,7 +19468,7 @@
         <v>976</v>
       </c>
       <c r="E479">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F479" s="2" t="s">
         <v>9</v>
@@ -19488,7 +19488,7 @@
         <v>978</v>
       </c>
       <c r="E480">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F480" s="2" t="s">
         <v>9</v>
@@ -19508,7 +19508,7 @@
         <v>980</v>
       </c>
       <c r="E481">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F481" s="2" t="s">
         <v>9</v>
@@ -19528,7 +19528,7 @@
         <v>982</v>
       </c>
       <c r="E482">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>9</v>
@@ -19548,7 +19548,7 @@
         <v>984</v>
       </c>
       <c r="E483">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F483" s="2" t="s">
         <v>9</v>
@@ -19568,7 +19568,7 @@
         <v>986</v>
       </c>
       <c r="E484">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F484" s="2" t="s">
         <v>9</v>
@@ -19588,7 +19588,7 @@
         <v>988</v>
       </c>
       <c r="E485">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F485" s="2" t="s">
         <v>9</v>
@@ -19608,7 +19608,7 @@
         <v>990</v>
       </c>
       <c r="E486">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F486" s="2" t="s">
         <v>9</v>
@@ -19628,7 +19628,7 @@
         <v>164</v>
       </c>
       <c r="E487">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F487" s="2" t="s">
         <v>9</v>
@@ -19648,7 +19648,7 @@
         <v>992</v>
       </c>
       <c r="E488">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F488" s="2" t="s">
         <v>9</v>
@@ -19668,7 +19668,7 @@
         <v>994</v>
       </c>
       <c r="E489">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F489" s="2" t="s">
         <v>9</v>
@@ -19688,7 +19688,7 @@
         <v>995</v>
       </c>
       <c r="E490">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F490" s="2" t="s">
         <v>9</v>
@@ -19708,7 +19708,7 @@
         <v>997</v>
       </c>
       <c r="E491">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F491" s="2" t="s">
         <v>9</v>
@@ -19728,7 +19728,7 @@
         <v>999</v>
       </c>
       <c r="E492">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F492" s="2" t="s">
         <v>9</v>
@@ -19748,7 +19748,7 @@
         <v>1002</v>
       </c>
       <c r="E493">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F493" s="2" t="s">
         <v>9</v>
@@ -19768,7 +19768,7 @@
         <v>1004</v>
       </c>
       <c r="E494">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F494" s="2" t="s">
         <v>9</v>
@@ -19788,7 +19788,7 @@
         <v>954</v>
       </c>
       <c r="E495">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F495" s="2" t="s">
         <v>9</v>
@@ -19808,7 +19808,7 @@
         <v>1006</v>
       </c>
       <c r="E496">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F496" s="2" t="s">
         <v>9</v>
@@ -19828,7 +19828,7 @@
         <v>1008</v>
       </c>
       <c r="E497">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F497" s="2" t="s">
         <v>9</v>
@@ -19848,7 +19848,7 @@
         <v>1009</v>
       </c>
       <c r="E498">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>9</v>
@@ -19868,7 +19868,7 @@
         <v>1011</v>
       </c>
       <c r="E499">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F499" s="2" t="s">
         <v>9</v>
@@ -19888,7 +19888,7 @@
         <v>1013</v>
       </c>
       <c r="E500">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F500" s="2" t="s">
         <v>9</v>
@@ -19908,7 +19908,7 @@
         <v>1015</v>
       </c>
       <c r="E501">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F501" s="2" t="s">
         <v>9</v>
@@ -19928,7 +19928,7 @@
         <v>1016</v>
       </c>
       <c r="E502">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F502" s="2" t="s">
         <v>9</v>
@@ -19948,7 +19948,7 @@
         <v>1018</v>
       </c>
       <c r="E503">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F503" s="2" t="s">
         <v>9</v>
@@ -19968,7 +19968,7 @@
         <v>1020</v>
       </c>
       <c r="E504">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F504" s="2" t="s">
         <v>9</v>
@@ -19988,7 +19988,7 @@
         <v>1022</v>
       </c>
       <c r="E505">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F505" s="2" t="s">
         <v>9</v>
@@ -20008,7 +20008,7 @@
         <v>1023</v>
       </c>
       <c r="E506">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F506" s="2" t="s">
         <v>9</v>
@@ -20028,7 +20028,7 @@
         <v>1025</v>
       </c>
       <c r="E507">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F507" s="2" t="s">
         <v>9</v>
@@ -20048,7 +20048,7 @@
         <v>1027</v>
       </c>
       <c r="E508">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F508" s="2" t="s">
         <v>9</v>
@@ -20068,7 +20068,7 @@
         <v>1029</v>
       </c>
       <c r="E509">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F509" s="2" t="s">
         <v>9</v>
@@ -20088,7 +20088,7 @@
         <v>1031</v>
       </c>
       <c r="E510">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F510" s="2" t="s">
         <v>9</v>
@@ -20108,7 +20108,7 @@
         <v>1033</v>
       </c>
       <c r="E511">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>9</v>
@@ -20128,7 +20128,7 @@
         <v>1035</v>
       </c>
       <c r="E512">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>9</v>
@@ -20148,7 +20148,7 @@
         <v>1037</v>
       </c>
       <c r="E513">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>9</v>
@@ -20168,7 +20168,7 @@
         <v>1039</v>
       </c>
       <c r="E514">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>9</v>
@@ -20188,7 +20188,7 @@
         <v>1041</v>
       </c>
       <c r="E515">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F515" s="2" t="s">
         <v>9</v>
@@ -20208,7 +20208,7 @@
         <v>1043</v>
       </c>
       <c r="E516">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>9</v>
@@ -20228,7 +20228,7 @@
         <v>1045</v>
       </c>
       <c r="E517">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F517" s="2" t="s">
         <v>9</v>
@@ -20248,7 +20248,7 @@
         <v>1047</v>
       </c>
       <c r="E518">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F518" s="2" t="s">
         <v>9</v>
@@ -20268,7 +20268,7 @@
         <v>1049</v>
       </c>
       <c r="E519">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F519" s="2" t="s">
         <v>9</v>
